--- a/MAE_and_R2/sample_data/sample_data_for_MAE_Sigma_R2.xlsx
+++ b/MAE_and_R2/sample_data/sample_data_for_MAE_Sigma_R2.xlsx
@@ -5,19 +5,17 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Daily_Work_of_Data_Science\MAE_and_R2\sample_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14385" windowHeight="7920" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14385" windowHeight="7920"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
     <sheet name="工作表2" sheetId="3" r:id="rId2"/>
+    <sheet name="工作表3" sheetId="4" r:id="rId3"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId3"/>
-  </externalReferences>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -28,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="2">
   <si>
     <t>Prediction</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -112,1732 +110,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="工作表1"/>
-      <sheetName val="工作表2"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="2">
-          <cell r="YA2">
-            <v>2.048</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="YA3">
-            <v>2.198</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="YA4">
-            <v>2.2040000000000002</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="YA5">
-            <v>2.1739999999999999</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="YA6">
-            <v>2.0960000000000001</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="YA7">
-            <v>2.0859999999999999</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="YA8">
-            <v>2.09</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="YA9">
-            <v>2.048</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="YA10">
-            <v>2.1070000000000002</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="YA11">
-            <v>2.15</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="YA12">
-            <v>2.0569999999999999</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="YA13">
-            <v>2.1120000000000001</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="YA14">
-            <v>2.0390000000000001</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="YA15">
-            <v>0.93500000000000005</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="YA16">
-            <v>1.216</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="YA17">
-            <v>1.4139999999999999</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="YA18">
-            <v>2.2189999999999999</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="YA19">
-            <v>2.14</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="YA20">
-            <v>2.1110000000000002</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="YA21">
-            <v>2.2429999999999999</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="YA22">
-            <v>2.044</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="YA23">
-            <v>2.101</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="YA24">
-            <v>2.2109999999999999</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="YA25">
-            <v>2.2280000000000002</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="YA26">
-            <v>2.1859999999999999</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="YA27">
-            <v>2.2629999999999999</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="YA28">
-            <v>2.206</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="YA29">
-            <v>2.1509999999999998</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="YA30">
-            <v>2.0550000000000002</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="YA31">
-            <v>2.2280000000000002</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="YA32">
-            <v>2.242</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="YA33">
-            <v>2.073</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="YA34">
-            <v>2.0590000000000002</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="YA35">
-            <v>2.2269999999999999</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="YA36">
-            <v>2.1469999999999998</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="YA37">
-            <v>2.165</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="YA38">
-            <v>2.0830000000000002</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="YA39">
-            <v>2.1579999999999999</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="YA40">
-            <v>2.056</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="YA41">
-            <v>2.0449999999999999</v>
-          </cell>
-        </row>
-        <row r="42">
-          <cell r="YA42">
-            <v>2.1800000000000002</v>
-          </cell>
-        </row>
-        <row r="43">
-          <cell r="YA43">
-            <v>2.1829999999999998</v>
-          </cell>
-        </row>
-        <row r="44">
-          <cell r="YA44">
-            <v>2.1680000000000001</v>
-          </cell>
-        </row>
-        <row r="45">
-          <cell r="YA45">
-            <v>2.1469999999999998</v>
-          </cell>
-        </row>
-        <row r="46">
-          <cell r="YA46">
-            <v>2.238</v>
-          </cell>
-        </row>
-        <row r="47">
-          <cell r="YA47">
-            <v>2.0720000000000001</v>
-          </cell>
-        </row>
-        <row r="48">
-          <cell r="YA48">
-            <v>2.0750000000000002</v>
-          </cell>
-        </row>
-        <row r="49">
-          <cell r="YA49">
-            <v>2.2639999999999998</v>
-          </cell>
-        </row>
-        <row r="50">
-          <cell r="YA50">
-            <v>2.2450000000000001</v>
-          </cell>
-        </row>
-        <row r="51">
-          <cell r="YA51">
-            <v>2.056</v>
-          </cell>
-        </row>
-        <row r="52">
-          <cell r="YA52">
-            <v>2.1539999999999999</v>
-          </cell>
-        </row>
-        <row r="53">
-          <cell r="YA53">
-            <v>2.1890000000000001</v>
-          </cell>
-        </row>
-        <row r="54">
-          <cell r="YA54">
-            <v>2.125</v>
-          </cell>
-        </row>
-        <row r="55">
-          <cell r="YA55">
-            <v>2.2040000000000002</v>
-          </cell>
-        </row>
-        <row r="56">
-          <cell r="YA56">
-            <v>2.1779999999999999</v>
-          </cell>
-        </row>
-        <row r="57">
-          <cell r="YA57">
-            <v>2.2629999999999999</v>
-          </cell>
-        </row>
-        <row r="58">
-          <cell r="YA58">
-            <v>2.1680000000000001</v>
-          </cell>
-        </row>
-        <row r="59">
-          <cell r="YA59">
-            <v>2.1890000000000001</v>
-          </cell>
-        </row>
-        <row r="60">
-          <cell r="YA60">
-            <v>2.081</v>
-          </cell>
-        </row>
-        <row r="61">
-          <cell r="YA61">
-            <v>2.2080000000000002</v>
-          </cell>
-        </row>
-        <row r="62">
-          <cell r="YA62">
-            <v>2.2010000000000001</v>
-          </cell>
-        </row>
-        <row r="63">
-          <cell r="YA63">
-            <v>2.234</v>
-          </cell>
-        </row>
-        <row r="64">
-          <cell r="YA64">
-            <v>2.1890000000000001</v>
-          </cell>
-        </row>
-        <row r="65">
-          <cell r="YA65">
-            <v>2.2130000000000001</v>
-          </cell>
-        </row>
-        <row r="66">
-          <cell r="YA66">
-            <v>2.1829999999999998</v>
-          </cell>
-        </row>
-        <row r="67">
-          <cell r="YA67">
-            <v>2.1760000000000002</v>
-          </cell>
-        </row>
-        <row r="68">
-          <cell r="YA68">
-            <v>2.181</v>
-          </cell>
-        </row>
-        <row r="69">
-          <cell r="YA69">
-            <v>2.0960000000000001</v>
-          </cell>
-        </row>
-        <row r="70">
-          <cell r="YA70">
-            <v>2.1539999999999999</v>
-          </cell>
-        </row>
-        <row r="71">
-          <cell r="YA71">
-            <v>2.069</v>
-          </cell>
-        </row>
-        <row r="72">
-          <cell r="YA72">
-            <v>2.2250000000000001</v>
-          </cell>
-        </row>
-        <row r="73">
-          <cell r="YA73">
-            <v>1.577</v>
-          </cell>
-        </row>
-        <row r="74">
-          <cell r="YA74">
-            <v>2.028</v>
-          </cell>
-        </row>
-        <row r="75">
-          <cell r="YA75">
-            <v>2.1110000000000002</v>
-          </cell>
-        </row>
-        <row r="76">
-          <cell r="YA76">
-            <v>2.1560000000000001</v>
-          </cell>
-        </row>
-        <row r="77">
-          <cell r="YA77">
-            <v>2.1469999999999998</v>
-          </cell>
-        </row>
-        <row r="78">
-          <cell r="YA78">
-            <v>2.0880000000000001</v>
-          </cell>
-        </row>
-        <row r="79">
-          <cell r="YA79">
-            <v>2.2149999999999999</v>
-          </cell>
-        </row>
-        <row r="80">
-          <cell r="YA80">
-            <v>2.105</v>
-          </cell>
-        </row>
-        <row r="81">
-          <cell r="YA81">
-            <v>2.2370000000000001</v>
-          </cell>
-        </row>
-        <row r="82">
-          <cell r="YA82">
-            <v>2.19</v>
-          </cell>
-        </row>
-        <row r="83">
-          <cell r="YA83">
-            <v>2.093</v>
-          </cell>
-        </row>
-        <row r="84">
-          <cell r="YA84">
-            <v>2.1829999999999998</v>
-          </cell>
-        </row>
-        <row r="85">
-          <cell r="YA85">
-            <v>2.1040000000000001</v>
-          </cell>
-        </row>
-        <row r="86">
-          <cell r="YA86">
-            <v>2.2410000000000001</v>
-          </cell>
-        </row>
-        <row r="87">
-          <cell r="YA87">
-            <v>2.0640000000000001</v>
-          </cell>
-        </row>
-        <row r="88">
-          <cell r="YA88">
-            <v>2.1840000000000002</v>
-          </cell>
-        </row>
-        <row r="89">
-          <cell r="YA89">
-            <v>2.2370000000000001</v>
-          </cell>
-        </row>
-        <row r="90">
-          <cell r="YA90">
-            <v>2.093</v>
-          </cell>
-        </row>
-        <row r="91">
-          <cell r="YA91">
-            <v>2.2480000000000002</v>
-          </cell>
-        </row>
-        <row r="92">
-          <cell r="YA92">
-            <v>2.1800000000000002</v>
-          </cell>
-        </row>
-        <row r="93">
-          <cell r="YA93">
-            <v>2.1539999999999999</v>
-          </cell>
-        </row>
-        <row r="94">
-          <cell r="YA94">
-            <v>2.2490000000000001</v>
-          </cell>
-        </row>
-        <row r="95">
-          <cell r="YA95">
-            <v>2.2400000000000002</v>
-          </cell>
-        </row>
-        <row r="96">
-          <cell r="YA96">
-            <v>2.2000000000000002</v>
-          </cell>
-        </row>
-        <row r="97">
-          <cell r="YA97">
-            <v>2.1589999999999998</v>
-          </cell>
-        </row>
-        <row r="98">
-          <cell r="YA98">
-            <v>2.258</v>
-          </cell>
-        </row>
-        <row r="99">
-          <cell r="YA99">
-            <v>2.1520000000000001</v>
-          </cell>
-        </row>
-        <row r="100">
-          <cell r="YA100">
-            <v>2.2320000000000002</v>
-          </cell>
-        </row>
-        <row r="101">
-          <cell r="YA101">
-            <v>2.2450000000000001</v>
-          </cell>
-        </row>
-        <row r="102">
-          <cell r="YA102">
-            <v>2.1949999999999998</v>
-          </cell>
-        </row>
-        <row r="103">
-          <cell r="YA103">
-            <v>2.1349999999999998</v>
-          </cell>
-        </row>
-        <row r="104">
-          <cell r="YA104">
-            <v>2.0990000000000002</v>
-          </cell>
-        </row>
-        <row r="105">
-          <cell r="YA105">
-            <v>2.1669999999999998</v>
-          </cell>
-        </row>
-        <row r="106">
-          <cell r="YA106">
-            <v>2.2450000000000001</v>
-          </cell>
-        </row>
-        <row r="107">
-          <cell r="YA107">
-            <v>2.0880000000000001</v>
-          </cell>
-        </row>
-        <row r="108">
-          <cell r="YA108">
-            <v>2.258</v>
-          </cell>
-        </row>
-        <row r="109">
-          <cell r="YA109">
-            <v>2.0840000000000001</v>
-          </cell>
-        </row>
-        <row r="110">
-          <cell r="YA110">
-            <v>2.1139999999999999</v>
-          </cell>
-        </row>
-        <row r="111">
-          <cell r="YA111">
-            <v>2.1880000000000002</v>
-          </cell>
-        </row>
-        <row r="112">
-          <cell r="YA112">
-            <v>2.2210000000000001</v>
-          </cell>
-        </row>
-        <row r="113">
-          <cell r="YA113">
-            <v>2.2040000000000002</v>
-          </cell>
-        </row>
-        <row r="114">
-          <cell r="YA114">
-            <v>2.2450000000000001</v>
-          </cell>
-        </row>
-        <row r="115">
-          <cell r="YA115">
-            <v>2.105</v>
-          </cell>
-        </row>
-        <row r="116">
-          <cell r="YA116">
-            <v>2.2570000000000001</v>
-          </cell>
-        </row>
-        <row r="117">
-          <cell r="YA117">
-            <v>2.23</v>
-          </cell>
-        </row>
-        <row r="118">
-          <cell r="YA118">
-            <v>2.165</v>
-          </cell>
-        </row>
-        <row r="119">
-          <cell r="YA119">
-            <v>2.0720000000000001</v>
-          </cell>
-        </row>
-        <row r="120">
-          <cell r="YA120">
-            <v>2.117</v>
-          </cell>
-        </row>
-        <row r="121">
-          <cell r="YA121">
-            <v>2.1419999999999999</v>
-          </cell>
-        </row>
-        <row r="122">
-          <cell r="YA122">
-            <v>2.258</v>
-          </cell>
-        </row>
-        <row r="123">
-          <cell r="YA123">
-            <v>2.1720000000000002</v>
-          </cell>
-        </row>
-        <row r="124">
-          <cell r="YA124">
-            <v>2.2639999999999998</v>
-          </cell>
-        </row>
-        <row r="125">
-          <cell r="YA125">
-            <v>2.085</v>
-          </cell>
-        </row>
-        <row r="126">
-          <cell r="YA126">
-            <v>2.1930000000000001</v>
-          </cell>
-        </row>
-        <row r="127">
-          <cell r="YA127">
-            <v>2.1640000000000001</v>
-          </cell>
-        </row>
-        <row r="128">
-          <cell r="YA128">
-            <v>2.1150000000000002</v>
-          </cell>
-        </row>
-        <row r="129">
-          <cell r="YA129">
-            <v>2.2160000000000002</v>
-          </cell>
-        </row>
-        <row r="130">
-          <cell r="YA130">
-            <v>2.2269999999999999</v>
-          </cell>
-        </row>
-        <row r="131">
-          <cell r="YA131">
-            <v>2.133</v>
-          </cell>
-        </row>
-        <row r="132">
-          <cell r="YA132">
-            <v>2.169</v>
-          </cell>
-        </row>
-        <row r="133">
-          <cell r="YA133">
-            <v>2.2290000000000001</v>
-          </cell>
-        </row>
-        <row r="134">
-          <cell r="YA134">
-            <v>2.069</v>
-          </cell>
-        </row>
-        <row r="135">
-          <cell r="YA135">
-            <v>2.2120000000000002</v>
-          </cell>
-        </row>
-        <row r="136">
-          <cell r="YA136">
-            <v>2.1659999999999999</v>
-          </cell>
-        </row>
-        <row r="137">
-          <cell r="YA137">
-            <v>2.165</v>
-          </cell>
-        </row>
-        <row r="138">
-          <cell r="YA138">
-            <v>2.1669999999999998</v>
-          </cell>
-        </row>
-        <row r="139">
-          <cell r="YA139">
-            <v>2.2160000000000002</v>
-          </cell>
-        </row>
-        <row r="140">
-          <cell r="YA140">
-            <v>2.1349999999999998</v>
-          </cell>
-        </row>
-        <row r="141">
-          <cell r="YA141">
-            <v>2.0750000000000002</v>
-          </cell>
-        </row>
-        <row r="142">
-          <cell r="YA142">
-            <v>2.1960000000000002</v>
-          </cell>
-        </row>
-        <row r="143">
-          <cell r="YA143">
-            <v>2.0979999999999999</v>
-          </cell>
-        </row>
-        <row r="144">
-          <cell r="YA144">
-            <v>2.0939999999999999</v>
-          </cell>
-        </row>
-        <row r="145">
-          <cell r="YA145">
-            <v>2.1970000000000001</v>
-          </cell>
-        </row>
-        <row r="146">
-          <cell r="YA146">
-            <v>2.0720000000000001</v>
-          </cell>
-        </row>
-        <row r="147">
-          <cell r="YA147">
-            <v>2.2400000000000002</v>
-          </cell>
-        </row>
-        <row r="148">
-          <cell r="YA148">
-            <v>2.14</v>
-          </cell>
-        </row>
-        <row r="149">
-          <cell r="YA149">
-            <v>2.0739999999999998</v>
-          </cell>
-        </row>
-        <row r="150">
-          <cell r="YA150">
-            <v>2.2069999999999999</v>
-          </cell>
-        </row>
-        <row r="151">
-          <cell r="YA151">
-            <v>2.1709999999999998</v>
-          </cell>
-        </row>
-        <row r="152">
-          <cell r="YA152">
-            <v>2.2570000000000001</v>
-          </cell>
-        </row>
-        <row r="153">
-          <cell r="YA153">
-            <v>2.2410000000000001</v>
-          </cell>
-        </row>
-        <row r="154">
-          <cell r="YA154">
-            <v>2.15</v>
-          </cell>
-        </row>
-        <row r="155">
-          <cell r="YA155">
-            <v>2.0750000000000002</v>
-          </cell>
-        </row>
-        <row r="156">
-          <cell r="YA156">
-            <v>2.161</v>
-          </cell>
-        </row>
-        <row r="157">
-          <cell r="YA157">
-            <v>2.222</v>
-          </cell>
-        </row>
-        <row r="158">
-          <cell r="YA158">
-            <v>2.2160000000000002</v>
-          </cell>
-        </row>
-        <row r="159">
-          <cell r="YA159">
-            <v>2.028</v>
-          </cell>
-        </row>
-        <row r="160">
-          <cell r="YA160">
-            <v>2.206</v>
-          </cell>
-        </row>
-        <row r="161">
-          <cell r="YA161">
-            <v>2.246</v>
-          </cell>
-        </row>
-        <row r="162">
-          <cell r="YA162">
-            <v>2.169</v>
-          </cell>
-        </row>
-        <row r="163">
-          <cell r="YA163">
-            <v>2.1459999999999999</v>
-          </cell>
-        </row>
-        <row r="164">
-          <cell r="YA164">
-            <v>2.13</v>
-          </cell>
-        </row>
-        <row r="165">
-          <cell r="YA165">
-            <v>2.1749999999999998</v>
-          </cell>
-        </row>
-        <row r="166">
-          <cell r="YA166">
-            <v>2.2170000000000001</v>
-          </cell>
-        </row>
-        <row r="167">
-          <cell r="YA167">
-            <v>2.2250000000000001</v>
-          </cell>
-        </row>
-        <row r="168">
-          <cell r="YA168">
-            <v>1.982</v>
-          </cell>
-        </row>
-        <row r="169">
-          <cell r="YA169">
-            <v>2.1240000000000001</v>
-          </cell>
-        </row>
-        <row r="170">
-          <cell r="YA170">
-            <v>2.1230000000000002</v>
-          </cell>
-        </row>
-        <row r="171">
-          <cell r="YA171">
-            <v>2.1040000000000001</v>
-          </cell>
-        </row>
-        <row r="172">
-          <cell r="YA172">
-            <v>2.129</v>
-          </cell>
-        </row>
-        <row r="173">
-          <cell r="YA173">
-            <v>2.198</v>
-          </cell>
-        </row>
-        <row r="174">
-          <cell r="YA174">
-            <v>2.0990000000000002</v>
-          </cell>
-        </row>
-        <row r="175">
-          <cell r="YA175">
-            <v>2.1539999999999999</v>
-          </cell>
-        </row>
-        <row r="176">
-          <cell r="YA176">
-            <v>2.117</v>
-          </cell>
-        </row>
-        <row r="177">
-          <cell r="YA177">
-            <v>2.149</v>
-          </cell>
-        </row>
-        <row r="178">
-          <cell r="YA178">
-            <v>2.169</v>
-          </cell>
-        </row>
-        <row r="179">
-          <cell r="YA179">
-            <v>2.1150000000000002</v>
-          </cell>
-        </row>
-        <row r="180">
-          <cell r="YA180">
-            <v>2.0779999999999998</v>
-          </cell>
-        </row>
-        <row r="181">
-          <cell r="YA181">
-            <v>2.1459999999999999</v>
-          </cell>
-        </row>
-        <row r="182">
-          <cell r="YA182">
-            <v>2.2000000000000002</v>
-          </cell>
-        </row>
-        <row r="183">
-          <cell r="YA183">
-            <v>2.1429999999999998</v>
-          </cell>
-        </row>
-        <row r="184">
-          <cell r="YA184">
-            <v>2.181</v>
-          </cell>
-        </row>
-        <row r="185">
-          <cell r="YA185">
-            <v>2.2080000000000002</v>
-          </cell>
-        </row>
-        <row r="186">
-          <cell r="YA186">
-            <v>2.1930000000000001</v>
-          </cell>
-        </row>
-        <row r="187">
-          <cell r="YA187">
-            <v>2.1669999999999998</v>
-          </cell>
-        </row>
-        <row r="188">
-          <cell r="YA188">
-            <v>2.1459999999999999</v>
-          </cell>
-        </row>
-        <row r="189">
-          <cell r="YA189">
-            <v>2.125</v>
-          </cell>
-        </row>
-        <row r="190">
-          <cell r="YA190">
-            <v>2.173</v>
-          </cell>
-        </row>
-        <row r="191">
-          <cell r="YA191">
-            <v>2.1619999999999999</v>
-          </cell>
-        </row>
-        <row r="192">
-          <cell r="YA192">
-            <v>2.1659999999999999</v>
-          </cell>
-        </row>
-        <row r="193">
-          <cell r="YA193">
-            <v>2.1859999999999999</v>
-          </cell>
-        </row>
-        <row r="194">
-          <cell r="YA194">
-            <v>2.0880000000000001</v>
-          </cell>
-        </row>
-        <row r="195">
-          <cell r="YA195">
-            <v>2.2610000000000001</v>
-          </cell>
-        </row>
-        <row r="196">
-          <cell r="YA196">
-            <v>2.1829999999999998</v>
-          </cell>
-        </row>
-        <row r="197">
-          <cell r="YA197">
-            <v>2.165</v>
-          </cell>
-        </row>
-        <row r="198">
-          <cell r="YA198">
-            <v>2.133</v>
-          </cell>
-        </row>
-        <row r="199">
-          <cell r="YA199">
-            <v>2.2160000000000002</v>
-          </cell>
-        </row>
-        <row r="200">
-          <cell r="YA200">
-            <v>2.1509999999999998</v>
-          </cell>
-        </row>
-        <row r="201">
-          <cell r="YA201">
-            <v>2.258</v>
-          </cell>
-        </row>
-        <row r="202">
-          <cell r="YA202">
-            <v>2.2090000000000001</v>
-          </cell>
-        </row>
-        <row r="203">
-          <cell r="YA203">
-            <v>2.1379999999999999</v>
-          </cell>
-        </row>
-        <row r="204">
-          <cell r="YA204">
-            <v>2.2530000000000001</v>
-          </cell>
-        </row>
-        <row r="205">
-          <cell r="YA205">
-            <v>2.16</v>
-          </cell>
-        </row>
-        <row r="206">
-          <cell r="YA206">
-            <v>2.129</v>
-          </cell>
-        </row>
-        <row r="207">
-          <cell r="YA207">
-            <v>2.13</v>
-          </cell>
-        </row>
-        <row r="208">
-          <cell r="YA208">
-            <v>2.2309999999999999</v>
-          </cell>
-        </row>
-        <row r="209">
-          <cell r="YA209">
-            <v>2.238</v>
-          </cell>
-        </row>
-        <row r="210">
-          <cell r="YA210">
-            <v>2.101</v>
-          </cell>
-        </row>
-        <row r="211">
-          <cell r="YA211">
-            <v>2.093</v>
-          </cell>
-        </row>
-        <row r="212">
-          <cell r="YA212">
-            <v>2.2069999999999999</v>
-          </cell>
-        </row>
-        <row r="213">
-          <cell r="YA213">
-            <v>2.2669999999999999</v>
-          </cell>
-        </row>
-        <row r="214">
-          <cell r="YA214">
-            <v>1.9990000000000001</v>
-          </cell>
-        </row>
-        <row r="215">
-          <cell r="YA215">
-            <v>2.0009999999999999</v>
-          </cell>
-        </row>
-        <row r="216">
-          <cell r="YA216">
-            <v>2.2349999999999999</v>
-          </cell>
-        </row>
-        <row r="217">
-          <cell r="YA217">
-            <v>2.0910000000000002</v>
-          </cell>
-        </row>
-        <row r="218">
-          <cell r="YA218">
-            <v>2.1629999999999998</v>
-          </cell>
-        </row>
-        <row r="219">
-          <cell r="YA219">
-            <v>2.1549999999999998</v>
-          </cell>
-        </row>
-        <row r="220">
-          <cell r="YA220">
-            <v>2.1150000000000002</v>
-          </cell>
-        </row>
-        <row r="221">
-          <cell r="YA221">
-            <v>2.0859999999999999</v>
-          </cell>
-        </row>
-        <row r="222">
-          <cell r="YA222">
-            <v>2.25</v>
-          </cell>
-        </row>
-        <row r="223">
-          <cell r="YA223">
-            <v>2.15</v>
-          </cell>
-        </row>
-        <row r="224">
-          <cell r="YA224">
-            <v>2.19</v>
-          </cell>
-        </row>
-        <row r="225">
-          <cell r="YA225">
-            <v>2.2240000000000002</v>
-          </cell>
-        </row>
-        <row r="226">
-          <cell r="YA226">
-            <v>2.242</v>
-          </cell>
-        </row>
-        <row r="227">
-          <cell r="YA227">
-            <v>2.2530000000000001</v>
-          </cell>
-        </row>
-        <row r="228">
-          <cell r="YA228">
-            <v>2.089</v>
-          </cell>
-        </row>
-        <row r="229">
-          <cell r="YA229">
-            <v>2.2040000000000002</v>
-          </cell>
-        </row>
-        <row r="230">
-          <cell r="YA230">
-            <v>2.2040000000000002</v>
-          </cell>
-        </row>
-        <row r="231">
-          <cell r="YA231">
-            <v>0.41</v>
-          </cell>
-        </row>
-        <row r="232">
-          <cell r="YA232">
-            <v>0.86799999999999999</v>
-          </cell>
-        </row>
-        <row r="233">
-          <cell r="YA233">
-            <v>0.83699999999999997</v>
-          </cell>
-        </row>
-        <row r="234">
-          <cell r="YA234">
-            <v>2.1040000000000001</v>
-          </cell>
-        </row>
-        <row r="235">
-          <cell r="YA235">
-            <v>1.9970000000000001</v>
-          </cell>
-        </row>
-        <row r="236">
-          <cell r="YA236">
-            <v>2.2450000000000001</v>
-          </cell>
-        </row>
-        <row r="237">
-          <cell r="YA237">
-            <v>2.1640000000000001</v>
-          </cell>
-        </row>
-        <row r="238">
-          <cell r="YA238">
-            <v>1.4059999999999999</v>
-          </cell>
-        </row>
-        <row r="239">
-          <cell r="YA239">
-            <v>1.85</v>
-          </cell>
-        </row>
-        <row r="240">
-          <cell r="YA240">
-            <v>2.0310000000000001</v>
-          </cell>
-        </row>
-        <row r="241">
-          <cell r="YA241">
-            <v>2.1680000000000001</v>
-          </cell>
-        </row>
-        <row r="242">
-          <cell r="YA242">
-            <v>2.1240000000000001</v>
-          </cell>
-        </row>
-        <row r="243">
-          <cell r="YA243">
-            <v>2.21</v>
-          </cell>
-        </row>
-        <row r="244">
-          <cell r="YA244">
-            <v>2.1930000000000001</v>
-          </cell>
-        </row>
-        <row r="245">
-          <cell r="YA245">
-            <v>1.085</v>
-          </cell>
-        </row>
-        <row r="246">
-          <cell r="YA246">
-            <v>1.2829999999999999</v>
-          </cell>
-        </row>
-        <row r="247">
-          <cell r="YA247">
-            <v>1.696</v>
-          </cell>
-        </row>
-        <row r="248">
-          <cell r="YA248">
-            <v>1.913</v>
-          </cell>
-        </row>
-        <row r="249">
-          <cell r="YA249">
-            <v>2.2480000000000002</v>
-          </cell>
-        </row>
-        <row r="250">
-          <cell r="YA250">
-            <v>2.258</v>
-          </cell>
-        </row>
-        <row r="251">
-          <cell r="YA251">
-            <v>2.1560000000000001</v>
-          </cell>
-        </row>
-        <row r="252">
-          <cell r="YA252">
-            <v>2.09</v>
-          </cell>
-        </row>
-        <row r="253">
-          <cell r="YA253">
-            <v>2.2530000000000001</v>
-          </cell>
-        </row>
-        <row r="254">
-          <cell r="YA254">
-            <v>2.1320000000000001</v>
-          </cell>
-        </row>
-        <row r="255">
-          <cell r="YA255">
-            <v>0.52700000000000002</v>
-          </cell>
-        </row>
-        <row r="256">
-          <cell r="YA256">
-            <v>0.67700000000000005</v>
-          </cell>
-        </row>
-        <row r="257">
-          <cell r="YA257">
-            <v>1.538</v>
-          </cell>
-        </row>
-        <row r="258">
-          <cell r="YA258">
-            <v>2.1920000000000002</v>
-          </cell>
-        </row>
-        <row r="259">
-          <cell r="YA259">
-            <v>2.2269999999999999</v>
-          </cell>
-        </row>
-        <row r="260">
-          <cell r="YA260">
-            <v>2.0449999999999999</v>
-          </cell>
-        </row>
-        <row r="261">
-          <cell r="YA261">
-            <v>2.2730000000000001</v>
-          </cell>
-        </row>
-        <row r="262">
-          <cell r="YA262">
-            <v>2.2069999999999999</v>
-          </cell>
-        </row>
-        <row r="263">
-          <cell r="YA263">
-            <v>2.1309999999999998</v>
-          </cell>
-        </row>
-        <row r="264">
-          <cell r="YA264">
-            <v>2.2320000000000002</v>
-          </cell>
-        </row>
-        <row r="265">
-          <cell r="YA265">
-            <v>2.133</v>
-          </cell>
-        </row>
-        <row r="266">
-          <cell r="YA266">
-            <v>2.0840000000000001</v>
-          </cell>
-        </row>
-        <row r="267">
-          <cell r="YA267">
-            <v>2.2000000000000002</v>
-          </cell>
-        </row>
-        <row r="268">
-          <cell r="YA268">
-            <v>2.125</v>
-          </cell>
-        </row>
-        <row r="269">
-          <cell r="YA269">
-            <v>2.2429999999999999</v>
-          </cell>
-        </row>
-        <row r="270">
-          <cell r="YA270">
-            <v>2.1800000000000002</v>
-          </cell>
-        </row>
-        <row r="271">
-          <cell r="YA271">
-            <v>2.238</v>
-          </cell>
-        </row>
-        <row r="272">
-          <cell r="YA272">
-            <v>2.1230000000000002</v>
-          </cell>
-        </row>
-        <row r="273">
-          <cell r="YA273">
-            <v>2.1259999999999999</v>
-          </cell>
-        </row>
-        <row r="274">
-          <cell r="YA274">
-            <v>2.1920000000000002</v>
-          </cell>
-        </row>
-        <row r="275">
-          <cell r="YA275">
-            <v>2.0750000000000002</v>
-          </cell>
-        </row>
-        <row r="276">
-          <cell r="YA276">
-            <v>2.1230000000000002</v>
-          </cell>
-        </row>
-        <row r="277">
-          <cell r="YA277">
-            <v>2.1459999999999999</v>
-          </cell>
-        </row>
-        <row r="278">
-          <cell r="YA278">
-            <v>2.1320000000000001</v>
-          </cell>
-        </row>
-        <row r="279">
-          <cell r="YA279">
-            <v>2.1829999999999998</v>
-          </cell>
-        </row>
-        <row r="280">
-          <cell r="YA280">
-            <v>2.2160000000000002</v>
-          </cell>
-        </row>
-        <row r="281">
-          <cell r="YA281">
-            <v>2.2130000000000001</v>
-          </cell>
-        </row>
-        <row r="282">
-          <cell r="YA282">
-            <v>2.2400000000000002</v>
-          </cell>
-        </row>
-        <row r="283">
-          <cell r="YA283">
-            <v>2.161</v>
-          </cell>
-        </row>
-        <row r="284">
-          <cell r="YA284">
-            <v>2.2349999999999999</v>
-          </cell>
-        </row>
-        <row r="285">
-          <cell r="YA285">
-            <v>2.1619999999999999</v>
-          </cell>
-        </row>
-        <row r="286">
-          <cell r="YA286">
-            <v>2.125</v>
-          </cell>
-        </row>
-        <row r="287">
-          <cell r="YA287">
-            <v>2.0670000000000002</v>
-          </cell>
-        </row>
-        <row r="288">
-          <cell r="YA288">
-            <v>2.1019999999999999</v>
-          </cell>
-        </row>
-        <row r="289">
-          <cell r="YA289">
-            <v>0.35299999999999998</v>
-          </cell>
-        </row>
-        <row r="290">
-          <cell r="YA290">
-            <v>0.871</v>
-          </cell>
-        </row>
-        <row r="291">
-          <cell r="YA291">
-            <v>1.3120000000000001</v>
-          </cell>
-        </row>
-        <row r="292">
-          <cell r="YA292">
-            <v>0.97499999999999998</v>
-          </cell>
-        </row>
-        <row r="293">
-          <cell r="YA293">
-            <v>2.1120000000000001</v>
-          </cell>
-        </row>
-        <row r="294">
-          <cell r="YA294">
-            <v>2.0209999999999999</v>
-          </cell>
-        </row>
-        <row r="295">
-          <cell r="YA295">
-            <v>2.2429999999999999</v>
-          </cell>
-        </row>
-        <row r="296">
-          <cell r="YA296">
-            <v>2.1320000000000001</v>
-          </cell>
-        </row>
-        <row r="297">
-          <cell r="YA297">
-            <v>2.1019999999999999</v>
-          </cell>
-        </row>
-        <row r="298">
-          <cell r="YA298">
-            <v>2.08</v>
-          </cell>
-        </row>
-        <row r="299">
-          <cell r="YA299">
-            <v>2.246</v>
-          </cell>
-        </row>
-        <row r="300">
-          <cell r="YA300">
-            <v>2.0630000000000002</v>
-          </cell>
-        </row>
-        <row r="301">
-          <cell r="YA301">
-            <v>2.2069999999999999</v>
-          </cell>
-        </row>
-        <row r="302">
-          <cell r="YA302">
-            <v>2.2189999999999999</v>
-          </cell>
-        </row>
-        <row r="303">
-          <cell r="YA303">
-            <v>2.1709999999999998</v>
-          </cell>
-        </row>
-        <row r="304">
-          <cell r="YA304">
-            <v>2.1469999999999998</v>
-          </cell>
-        </row>
-        <row r="305">
-          <cell r="YA305">
-            <v>0.40400000000000003</v>
-          </cell>
-        </row>
-        <row r="306">
-          <cell r="YA306">
-            <v>0.59399999999999997</v>
-          </cell>
-        </row>
-        <row r="307">
-          <cell r="YA307">
-            <v>0.82199999999999995</v>
-          </cell>
-        </row>
-        <row r="308">
-          <cell r="YA308">
-            <v>1.738</v>
-          </cell>
-        </row>
-        <row r="309">
-          <cell r="YA309">
-            <v>0.69699999999999995</v>
-          </cell>
-        </row>
-        <row r="310">
-          <cell r="YA310">
-            <v>0.70799999999999996</v>
-          </cell>
-        </row>
-        <row r="311">
-          <cell r="YA311">
-            <v>1.867</v>
-          </cell>
-        </row>
-        <row r="312">
-          <cell r="YA312">
-            <v>2.1150000000000002</v>
-          </cell>
-        </row>
-        <row r="313">
-          <cell r="YA313">
-            <v>2.1150000000000002</v>
-          </cell>
-        </row>
-        <row r="314">
-          <cell r="YA314">
-            <v>2.0569999999999999</v>
-          </cell>
-        </row>
-        <row r="315">
-          <cell r="YA315">
-            <v>2.1850000000000001</v>
-          </cell>
-        </row>
-        <row r="316">
-          <cell r="YA316">
-            <v>2.1139999999999999</v>
-          </cell>
-        </row>
-        <row r="317">
-          <cell r="YA317">
-            <v>2.218</v>
-          </cell>
-        </row>
-        <row r="318">
-          <cell r="YA318">
-            <v>2.1640000000000001</v>
-          </cell>
-        </row>
-        <row r="319">
-          <cell r="YA319">
-            <v>2.1190000000000002</v>
-          </cell>
-        </row>
-        <row r="320">
-          <cell r="YA320">
-            <v>2.077</v>
-          </cell>
-        </row>
-        <row r="321">
-          <cell r="YA321">
-            <v>2.2130000000000001</v>
-          </cell>
-        </row>
-        <row r="322">
-          <cell r="YA322">
-            <v>2.0539999999999998</v>
-          </cell>
-        </row>
-        <row r="323">
-          <cell r="YA323">
-            <v>2.1320000000000001</v>
-          </cell>
-        </row>
-        <row r="324">
-          <cell r="YA324">
-            <v>2.2309999999999999</v>
-          </cell>
-        </row>
-        <row r="325">
-          <cell r="YA325">
-            <v>2.1739999999999999</v>
-          </cell>
-        </row>
-        <row r="326">
-          <cell r="YA326">
-            <v>2.0750000000000002</v>
-          </cell>
-        </row>
-        <row r="327">
-          <cell r="YA327">
-            <v>2.0680000000000001</v>
-          </cell>
-        </row>
-        <row r="328">
-          <cell r="YA328">
-            <v>2.222</v>
-          </cell>
-        </row>
-        <row r="329">
-          <cell r="YA329">
-            <v>2.077</v>
-          </cell>
-        </row>
-        <row r="330">
-          <cell r="YA330">
-            <v>2.1469999999999998</v>
-          </cell>
-        </row>
-        <row r="331">
-          <cell r="YA331">
-            <v>2.13</v>
-          </cell>
-        </row>
-        <row r="332">
-          <cell r="YA332">
-            <v>2.133</v>
-          </cell>
-        </row>
-        <row r="333">
-          <cell r="YA333">
-            <v>2.0910000000000002</v>
-          </cell>
-        </row>
-        <row r="334">
-          <cell r="YA334">
-            <v>2.2250000000000001</v>
-          </cell>
-        </row>
-        <row r="335">
-          <cell r="YA335">
-            <v>2.1019999999999999</v>
-          </cell>
-        </row>
-        <row r="336">
-          <cell r="YA336">
-            <v>2.0640000000000001</v>
-          </cell>
-        </row>
-        <row r="337">
-          <cell r="YA337">
-            <v>2.09</v>
-          </cell>
-        </row>
-        <row r="338">
-          <cell r="YA338">
-            <v>2.2050000000000001</v>
-          </cell>
-        </row>
-        <row r="339">
-          <cell r="YA339">
-            <v>2.2170000000000001</v>
-          </cell>
-        </row>
-        <row r="340">
-          <cell r="YA340">
-            <v>2.2189999999999999</v>
-          </cell>
-        </row>
-        <row r="341">
-          <cell r="YA341">
-            <v>2.0870000000000002</v>
-          </cell>
-        </row>
-        <row r="342">
-          <cell r="YA342">
-            <v>2.1469999999999998</v>
-          </cell>
-        </row>
-        <row r="343">
-          <cell r="YA343">
-            <v>2.0619999999999998</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2105,13 +377,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B344"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.149999999999999" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="12.796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.45">
@@ -4876,13 +3147,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B343"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.149999999999999" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="2" width="13.86328125" customWidth="1"/>
+    <col min="1" max="1" width="12.796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.45">
@@ -7633,4 +5903,2913 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B361"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A360" sqref="A360"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.149999999999999" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="12.796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.19921875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A2">
+        <v>1033.4477894777456</v>
+      </c>
+      <c r="B2">
+        <v>1086.8512920169351</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A3">
+        <v>1000.8235488756148</v>
+      </c>
+      <c r="B3">
+        <v>1091.8627054440078</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A4">
+        <v>1081.0280746531071</v>
+      </c>
+      <c r="B4">
+        <v>1053.2389862604816</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A5">
+        <v>1092.7333715045779</v>
+      </c>
+      <c r="B5">
+        <v>1065.1538780931305</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A6">
+        <v>1069.2621888386188</v>
+      </c>
+      <c r="B6">
+        <v>1023.2456718894844</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A7">
+        <v>1041.8097991197174</v>
+      </c>
+      <c r="B7">
+        <v>1077.5554095864975</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A8">
+        <v>1063.1054347608538</v>
+      </c>
+      <c r="B8">
+        <v>1044.0067819774924</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A9">
+        <v>1022.9740641635372</v>
+      </c>
+      <c r="B9">
+        <v>1080.3850167628698</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A10">
+        <v>1036.9140284357543</v>
+      </c>
+      <c r="B10">
+        <v>1103.1035709855478</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A11">
+        <v>1014.1376590587772</v>
+      </c>
+      <c r="B11">
+        <v>1109.8403304791416</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A12">
+        <v>1016.5806543233354</v>
+      </c>
+      <c r="B12">
+        <v>1070.3405149468244</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A13">
+        <v>1024.4331316297198</v>
+      </c>
+      <c r="B13">
+        <v>1048.5787303446637</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A14">
+        <v>1024.626322623629</v>
+      </c>
+      <c r="B14">
+        <v>1057.8884481268049</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A15">
+        <v>1063.2034935093425</v>
+      </c>
+      <c r="B15">
+        <v>1012.2928075656783</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A16">
+        <v>1003.7563520478152</v>
+      </c>
+      <c r="B16">
+        <v>1041.3537665705935</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A17">
+        <v>1013.517631774556</v>
+      </c>
+      <c r="B17">
+        <v>1102.4219712796435</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A18">
+        <v>1286.5879990000001</v>
+      </c>
+      <c r="B18">
+        <v>1071.0595219009965</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A19">
+        <v>1063.3830086314194</v>
+      </c>
+      <c r="B19">
+        <v>1074.0603136387642</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A20">
+        <v>1051.7893377362484</v>
+      </c>
+      <c r="B20">
+        <v>1054.1434698758644</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A21">
+        <v>1030.9303703109911</v>
+      </c>
+      <c r="B21">
+        <v>1093.5125622052117</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A22">
+        <v>1036.9863653931322</v>
+      </c>
+      <c r="B22">
+        <v>1019.7077349398365</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A23">
+        <v>1059.1355897006504</v>
+      </c>
+      <c r="B23">
+        <v>1024.985798302954</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A24">
+        <v>1065.0689748041261</v>
+      </c>
+      <c r="B24">
+        <v>1106.6427321938293</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A25">
+        <v>1099.2779709871149</v>
+      </c>
+      <c r="B25">
+        <v>1065.6089074273325</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A26">
+        <v>1060.0494235596987</v>
+      </c>
+      <c r="B26">
+        <v>1088.6406160608103</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A27">
+        <v>1033.531141241979</v>
+      </c>
+      <c r="B27">
+        <v>1101.6211466632242</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A28">
+        <v>1018.262108056293</v>
+      </c>
+      <c r="B28">
+        <v>1016.1869370955037</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A29">
+        <v>1012.1754188398634</v>
+      </c>
+      <c r="B29">
+        <v>1026.6218873398611</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A30">
+        <v>1279.1345859999999</v>
+      </c>
+      <c r="B30">
+        <v>1068.7758126939916</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A31">
+        <v>1029.1381518529163</v>
+      </c>
+      <c r="B31">
+        <v>1043.4051310903067</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A32">
+        <v>1047.6135780203413</v>
+      </c>
+      <c r="B32">
+        <v>1021.2200369937619</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A33">
+        <v>1010.9877003953742</v>
+      </c>
+      <c r="B33">
+        <v>1067.5328551694474</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A34">
+        <v>1021.3921235213439</v>
+      </c>
+      <c r="B34">
+        <v>1095.9934016837292</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A35">
+        <v>1039.1819010980259</v>
+      </c>
+      <c r="B35">
+        <v>1089.7931391981501</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A36">
+        <v>1056.8846673429298</v>
+      </c>
+      <c r="B36">
+        <v>1022.977974831917</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A37">
+        <v>1006.2656159475583</v>
+      </c>
+      <c r="B37">
+        <v>1051.1365247310794</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A38">
+        <v>1055.1401543678628</v>
+      </c>
+      <c r="B38">
+        <v>1095.8451562233956</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A39">
+        <v>1008.1744597648241</v>
+      </c>
+      <c r="B39">
+        <v>1036.9919356016558</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A40">
+        <v>1087.2701002755866</v>
+      </c>
+      <c r="B40">
+        <v>1026.5263160625068</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A41">
+        <v>1077.188188730755</v>
+      </c>
+      <c r="B41">
+        <v>1083.7243530150361</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A42">
+        <v>1047.9534806303247</v>
+      </c>
+      <c r="B42">
+        <v>1105.2795470408075</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A43">
+        <v>1031.1193658221325</v>
+      </c>
+      <c r="B43">
+        <v>1044.7102794775594</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A44">
+        <v>1029.5373984163623</v>
+      </c>
+      <c r="B44">
+        <v>1010.4367394158907</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A45">
+        <v>1096.7711393879292</v>
+      </c>
+      <c r="B45">
+        <v>1076.6479426171277</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A46">
+        <v>1074.4933641734285</v>
+      </c>
+      <c r="B46">
+        <v>1024.9840454052421</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A47">
+        <v>1090.2654581463617</v>
+      </c>
+      <c r="B47">
+        <v>1107.0511090613288</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A48">
+        <v>1038.0995445100723</v>
+      </c>
+      <c r="B48">
+        <v>1107.613929920821</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A49">
+        <v>1023.4493617655777</v>
+      </c>
+      <c r="B49">
+        <v>1037.4586386975311</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A50">
+        <v>1039.8358875926183</v>
+      </c>
+      <c r="B50">
+        <v>1082.6687626640221</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A51">
+        <v>1094.8823489836882</v>
+      </c>
+      <c r="B51">
+        <v>1101.9918974258132</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A52">
+        <v>1012.5272615208843</v>
+      </c>
+      <c r="B52">
+        <v>1051.6991338724886</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A53">
+        <v>1081.1072453826371</v>
+      </c>
+      <c r="B53">
+        <v>1098.3360297107888</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A54">
+        <v>1049.7742548020183</v>
+      </c>
+      <c r="B54">
+        <v>1030.5198617498565</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A55">
+        <v>1059.9293775909059</v>
+      </c>
+      <c r="B55">
+        <v>1073.0293855922857</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A56">
+        <v>1040.4612262080461</v>
+      </c>
+      <c r="B56">
+        <v>1099.3898386597341</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A57">
+        <v>1011.4033592654956</v>
+      </c>
+      <c r="B57">
+        <v>1104.3115046701253</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A58">
+        <v>1083.4415729017574</v>
+      </c>
+      <c r="B58">
+        <v>1093.7434062580696</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A59">
+        <v>1081.7492203746833</v>
+      </c>
+      <c r="B59">
+        <v>1076.7484433923569</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A60">
+        <v>1008.1121429923313</v>
+      </c>
+      <c r="B60">
+        <v>1019.7875276147502</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A61">
+        <v>1053.8848138523217</v>
+      </c>
+      <c r="B61">
+        <v>1057.1705918749319</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A62">
+        <v>1045.3438430414446</v>
+      </c>
+      <c r="B62">
+        <v>1065.743055560371</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A63">
+        <v>1004.9465191451077</v>
+      </c>
+      <c r="B63">
+        <v>1079.9831618516846</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A64">
+        <v>1003.9096869040926</v>
+      </c>
+      <c r="B64">
+        <v>1047.1815713117958</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A65">
+        <v>1068.8650770685397</v>
+      </c>
+      <c r="B65">
+        <v>1069.6955081989026</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A66">
+        <v>1045.0794328177008</v>
+      </c>
+      <c r="B66">
+        <v>1041.2923979320044</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A67">
+        <v>1098.6982005354857</v>
+      </c>
+      <c r="B67">
+        <v>1014.0511738198094</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A68">
+        <v>1016.0979426826691</v>
+      </c>
+      <c r="B68">
+        <v>1082.3249246060111</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A69">
+        <v>1057.6095904335552</v>
+      </c>
+      <c r="B69">
+        <v>1045.8144219728313</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A70">
+        <v>1056.8426430255438</v>
+      </c>
+      <c r="B70">
+        <v>1045.4892365473142</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A71">
+        <v>1007.4811018839234</v>
+      </c>
+      <c r="B71">
+        <v>1012.8887334416313</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A72">
+        <v>1019.9194057485935</v>
+      </c>
+      <c r="B72">
+        <v>1023.7184416860529</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A73">
+        <v>1097.0556666844691</v>
+      </c>
+      <c r="B73">
+        <v>1010.6499428975881</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A74">
+        <v>1042.3052418949619</v>
+      </c>
+      <c r="B74">
+        <v>1061.0718279324778</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A75">
+        <v>1016.7117851194303</v>
+      </c>
+      <c r="B75">
+        <v>1081.8498774465313</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A76">
+        <v>1019.2642390493854</v>
+      </c>
+      <c r="B76">
+        <v>1047.5789785797983</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A77">
+        <v>1055.3233929901453</v>
+      </c>
+      <c r="B77">
+        <v>1025.4058512772287</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A78">
+        <v>1028.880245876047</v>
+      </c>
+      <c r="B78">
+        <v>1065.5451438335704</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A79">
+        <v>1086.8166058606307</v>
+      </c>
+      <c r="B79">
+        <v>1073.3629267465374</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A80">
+        <v>1099.3891744678356</v>
+      </c>
+      <c r="B80">
+        <v>1023.0156141472363</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A81">
+        <v>1091.160876587023</v>
+      </c>
+      <c r="B81">
+        <v>1109.5916001682488</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A82">
+        <v>1092.0865400281612</v>
+      </c>
+      <c r="B82">
+        <v>1033.0525458139259</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A83">
+        <v>1081.2439921408318</v>
+      </c>
+      <c r="B83">
+        <v>1051.5121746418763</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A84">
+        <v>1065.9815478958051</v>
+      </c>
+      <c r="B84">
+        <v>1055.7772649542699</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A85">
+        <v>1017.4147993367694</v>
+      </c>
+      <c r="B85">
+        <v>1108.722802513541</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A86">
+        <v>1066.041806800326</v>
+      </c>
+      <c r="B86">
+        <v>1077.3969894618515</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A87">
+        <v>1077.5170290888777</v>
+      </c>
+      <c r="B87">
+        <v>1059.8554189704746</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A88">
+        <v>1085.0590237170245</v>
+      </c>
+      <c r="B88">
+        <v>1059.3323637914739</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A89">
+        <v>1011.693964173969</v>
+      </c>
+      <c r="B89">
+        <v>1027.3084793611929</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A90">
+        <v>1010.3769519077691</v>
+      </c>
+      <c r="B90">
+        <v>1046.9357122008371</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A91">
+        <v>1048.5687632086322</v>
+      </c>
+      <c r="B91">
+        <v>1094.5360457769859</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A92">
+        <v>1018.9988225659287</v>
+      </c>
+      <c r="B92">
+        <v>1079.1592548086076</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A93">
+        <v>1019.4452759549503</v>
+      </c>
+      <c r="B93">
+        <v>1067.1513668700291</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A94">
+        <v>1068.9357139500135</v>
+      </c>
+      <c r="B94">
+        <v>1010.0194246469486</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A95">
+        <v>1086.3261026075215</v>
+      </c>
+      <c r="B95">
+        <v>1047.6202501578994</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A96">
+        <v>1003.4445624889725</v>
+      </c>
+      <c r="B96">
+        <v>1103.3577422659002</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A97">
+        <v>1015.2476176184839</v>
+      </c>
+      <c r="B97">
+        <v>1062.0851276224723</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A98">
+        <v>1195.123963</v>
+      </c>
+      <c r="B98">
+        <v>1067.9225196843418</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A99">
+        <v>1026.2893088092387</v>
+      </c>
+      <c r="B99">
+        <v>1044.6010485499348</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A100">
+        <v>1022.7252384638148</v>
+      </c>
+      <c r="B100">
+        <v>1048.5426599317157</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A101">
+        <v>970.35220018682844</v>
+      </c>
+      <c r="B101">
+        <v>924.24256260977756</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A102">
+        <v>980.34538117945931</v>
+      </c>
+      <c r="B102">
+        <v>969.40189260934426</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A103">
+        <v>958.55600903825393</v>
+      </c>
+      <c r="B103">
+        <v>974.04636416211304</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A104">
+        <v>938.16913039470114</v>
+      </c>
+      <c r="B104">
+        <v>985.13620520806296</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A105">
+        <v>982.13876822860823</v>
+      </c>
+      <c r="B105">
+        <v>995.8800921829511</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A106">
+        <v>923.29576976800672</v>
+      </c>
+      <c r="B106">
+        <v>969.40827914390957</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A107">
+        <v>946.61529523250465</v>
+      </c>
+      <c r="B107">
+        <v>935.9302514222403</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A108">
+        <v>933.2496963458932</v>
+      </c>
+      <c r="B108">
+        <v>990.25027644179295</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A109">
+        <v>968.43347551304396</v>
+      </c>
+      <c r="B109">
+        <v>977.0021501922181</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A110">
+        <v>908.02855151989149</v>
+      </c>
+      <c r="B110">
+        <v>945.14990502918488</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A111">
+        <v>902.44128185984482</v>
+      </c>
+      <c r="B111">
+        <v>903.79774439103949</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A112">
+        <v>908.13319686865191</v>
+      </c>
+      <c r="B112">
+        <v>906.03869077239847</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A113">
+        <v>909.70622398476917</v>
+      </c>
+      <c r="B113">
+        <v>985.69375052083183</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A114">
+        <v>912.11846966995938</v>
+      </c>
+      <c r="B114">
+        <v>951.69776948551703</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A115">
+        <v>923.94476756909012</v>
+      </c>
+      <c r="B115">
+        <v>931.51024248002761</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A116">
+        <v>914.51761279898915</v>
+      </c>
+      <c r="B116">
+        <v>949.53739752329636</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A117">
+        <v>959.32495644711582</v>
+      </c>
+      <c r="B117">
+        <v>920.7854685552719</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A118">
+        <v>989.30685967749935</v>
+      </c>
+      <c r="B118">
+        <v>967.21922623581975</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A119">
+        <v>1058.1352690000001</v>
+      </c>
+      <c r="B119">
+        <v>945.46876156947212</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A120">
+        <v>927.04772051135978</v>
+      </c>
+      <c r="B120">
+        <v>928.97844866362357</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A121">
+        <v>930.76444507712131</v>
+      </c>
+      <c r="B121">
+        <v>927.33282473650706</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A122">
+        <v>913.62467646704749</v>
+      </c>
+      <c r="B122">
+        <v>961.98877300253253</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A123">
+        <v>946.88534618333779</v>
+      </c>
+      <c r="B123">
+        <v>927.37586533794808</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A124">
+        <v>952.53760142287933</v>
+      </c>
+      <c r="B124">
+        <v>949.00631606188495</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A125">
+        <v>990.70660621845946</v>
+      </c>
+      <c r="B125">
+        <v>902.92570215672197</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A126">
+        <v>982.71884554120197</v>
+      </c>
+      <c r="B126">
+        <v>955.59254119775187</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A127">
+        <v>958.46973014211835</v>
+      </c>
+      <c r="B127">
+        <v>904.2661645523757</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A128">
+        <v>946.81431764130173</v>
+      </c>
+      <c r="B128">
+        <v>927.17295407720871</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A129">
+        <v>920.55980356344207</v>
+      </c>
+      <c r="B129">
+        <v>912.33940236451508</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A130">
+        <v>961.88528032910335</v>
+      </c>
+      <c r="B130">
+        <v>903.65479850211159</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A131">
+        <v>919.76597313126035</v>
+      </c>
+      <c r="B131">
+        <v>920.67465983281545</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A132">
+        <v>992.54800064958317</v>
+      </c>
+      <c r="B132">
+        <v>912.59077782768873</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A133">
+        <v>993.73701832603729</v>
+      </c>
+      <c r="B133">
+        <v>937.88620407132009</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A134">
+        <v>904.80419613468541</v>
+      </c>
+      <c r="B134">
+        <v>975.62792998172142</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A135">
+        <v>914.86716768175779</v>
+      </c>
+      <c r="B135">
+        <v>993.85409309863621</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A136">
+        <v>942.02711850042613</v>
+      </c>
+      <c r="B136">
+        <v>992.77172040871949</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A137">
+        <v>953.09113320341555</v>
+      </c>
+      <c r="B137">
+        <v>933.56242457262647</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A138">
+        <v>960.57269558083226</v>
+      </c>
+      <c r="B138">
+        <v>937.85453433270084</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A139">
+        <v>922.15662843852488</v>
+      </c>
+      <c r="B139">
+        <v>936.90558282464417</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A140">
+        <v>931.09419307276676</v>
+      </c>
+      <c r="B140">
+        <v>966.6180676774095</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A141">
+        <v>986.97469238777421</v>
+      </c>
+      <c r="B141">
+        <v>971.63680351221922</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A142">
+        <v>913.12688132724304</v>
+      </c>
+      <c r="B142">
+        <v>987.55200376211087</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A143">
+        <v>906.26429844843847</v>
+      </c>
+      <c r="B143">
+        <v>991.18019220817303</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A144">
+        <v>926.9874308014181</v>
+      </c>
+      <c r="B144">
+        <v>904.07998305444448</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A145">
+        <v>974.05444656498128</v>
+      </c>
+      <c r="B145">
+        <v>979.40962808776351</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A146">
+        <v>969.84384190558796</v>
+      </c>
+      <c r="B146">
+        <v>961.83245694024822</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A147">
+        <v>976.03677757460218</v>
+      </c>
+      <c r="B147">
+        <v>923.79528936130987</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A148">
+        <v>958.74427615717332</v>
+      </c>
+      <c r="B148">
+        <v>993.4926405041316</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A149">
+        <v>960.43999897212711</v>
+      </c>
+      <c r="B149">
+        <v>967.7380988738015</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A150">
+        <v>915.18290353686211</v>
+      </c>
+      <c r="B150">
+        <v>992.76397896385981</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A151">
+        <v>985.41986369053416</v>
+      </c>
+      <c r="B151">
+        <v>923.03830251149247</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A152">
+        <v>996.83291890082478</v>
+      </c>
+      <c r="B152">
+        <v>976.18107080820869</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A153">
+        <v>990.83935726634877</v>
+      </c>
+      <c r="B153">
+        <v>902.62178396208287</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A154">
+        <v>971.99773232428265</v>
+      </c>
+      <c r="B154">
+        <v>950.66217021628825</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A155">
+        <v>968.5353715943462</v>
+      </c>
+      <c r="B155">
+        <v>903.32892275860388</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A156">
+        <v>971.89430174667939</v>
+      </c>
+      <c r="B156">
+        <v>965.30773409564733</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A157">
+        <v>939.07937584739102</v>
+      </c>
+      <c r="B157">
+        <v>1000.1751274356739</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A158">
+        <v>984.33420744670661</v>
+      </c>
+      <c r="B158">
+        <v>926.18538604625041</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A159">
+        <v>990.14184695833069</v>
+      </c>
+      <c r="B159">
+        <v>905.26989612092416</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A160">
+        <v>902.01004645268904</v>
+      </c>
+      <c r="B160">
+        <v>916.64676408915352</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A161">
+        <v>971.36398450485501</v>
+      </c>
+      <c r="B161">
+        <v>980.39259573132392</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A162">
+        <v>983.07066551273863</v>
+      </c>
+      <c r="B162">
+        <v>918.41379946796474</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A163">
+        <v>939.07761288735776</v>
+      </c>
+      <c r="B163">
+        <v>931.94939454012729</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A164">
+        <v>922.43013929567826</v>
+      </c>
+      <c r="B164">
+        <v>982.05159296909096</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A165">
+        <v>922.19285624981489</v>
+      </c>
+      <c r="B165">
+        <v>961.61777915453297</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A166">
+        <v>993.99311895959841</v>
+      </c>
+      <c r="B166">
+        <v>920.24422489490178</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A167">
+        <v>987.50909851892186</v>
+      </c>
+      <c r="B167">
+        <v>960.8115585765895</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A168">
+        <v>940.59717046580352</v>
+      </c>
+      <c r="B168">
+        <v>979.95150243172714</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A169">
+        <v>952.86119601613575</v>
+      </c>
+      <c r="B169">
+        <v>965.1278618386292</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A170">
+        <v>974.00408134416659</v>
+      </c>
+      <c r="B170">
+        <v>906.28574488103266</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A171">
+        <v>946.63238340694716</v>
+      </c>
+      <c r="B171">
+        <v>933.30527107210901</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A172">
+        <v>972.98876087568306</v>
+      </c>
+      <c r="B172">
+        <v>935.74425379980005</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A173">
+        <v>924.36797269608257</v>
+      </c>
+      <c r="B173">
+        <v>964.91163367886145</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A174">
+        <v>969.26591407088483</v>
+      </c>
+      <c r="B174">
+        <v>979.36542021764512</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A175">
+        <v>932.25936154909982</v>
+      </c>
+      <c r="B175">
+        <v>930.37081945192153</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A176">
+        <v>918.10966866041701</v>
+      </c>
+      <c r="B176">
+        <v>944.1356033976723</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A177">
+        <v>962.78408884519513</v>
+      </c>
+      <c r="B177">
+        <v>919.12283291769916</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A178">
+        <v>941.09519322222923</v>
+      </c>
+      <c r="B178">
+        <v>906.40831813240027</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A179">
+        <v>1102.3209999999999</v>
+      </c>
+      <c r="B179">
+        <v>988.34927573110645</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A180">
+        <v>903.10537914262204</v>
+      </c>
+      <c r="B180">
+        <v>902.50260511135036</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A181">
+        <v>942.63985105041695</v>
+      </c>
+      <c r="B181">
+        <v>926.96508782689398</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A182">
+        <v>918.37406387142676</v>
+      </c>
+      <c r="B182">
+        <v>981.34202172481184</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A183">
+        <v>931.56400054135202</v>
+      </c>
+      <c r="B183">
+        <v>962.72109654386691</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A184">
+        <v>910.3372364417138</v>
+      </c>
+      <c r="B184">
+        <v>912.81479444645936</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A185">
+        <v>937.07209783408427</v>
+      </c>
+      <c r="B185">
+        <v>984.19955846039795</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A186">
+        <v>910.70400565250134</v>
+      </c>
+      <c r="B186">
+        <v>944.1545245294368</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A187">
+        <v>993.50006651381682</v>
+      </c>
+      <c r="B187">
+        <v>981.86258212227938</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A188">
+        <v>993.1059913467368</v>
+      </c>
+      <c r="B188">
+        <v>992.51795897610737</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A189">
+        <v>1524.409065034388</v>
+      </c>
+      <c r="B189">
+        <v>1539.8039430891251</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A190">
+        <v>1563.5924592382808</v>
+      </c>
+      <c r="B190">
+        <v>1566.004999581068</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A191">
+        <v>1569.8492152212414</v>
+      </c>
+      <c r="B191">
+        <v>1547.8686486443848</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A192">
+        <v>1566.1045521221806</v>
+      </c>
+      <c r="B192">
+        <v>1523.6509379065967</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A193">
+        <v>1546.0840204507392</v>
+      </c>
+      <c r="B193">
+        <v>1498.0851979250272</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A194">
+        <v>1582.3240607460516</v>
+      </c>
+      <c r="B194">
+        <v>1553.3385191159205</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A195">
+        <v>1579.1799263712692</v>
+      </c>
+      <c r="B195">
+        <v>1593.4730088344527</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A196">
+        <v>1543.0575085074299</v>
+      </c>
+      <c r="B196">
+        <v>1512.6011485711235</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A197">
+        <v>1570.5972231054834</v>
+      </c>
+      <c r="B197">
+        <v>1509.6929462414953</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A198">
+        <v>1570.3190866168909</v>
+      </c>
+      <c r="B198">
+        <v>1569.6119227988049</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A199">
+        <v>1551.8142591224528</v>
+      </c>
+      <c r="B199">
+        <v>1587.6701042690092</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A200">
+        <v>1551.2981610913789</v>
+      </c>
+      <c r="B200">
+        <v>1552.8941605881907</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A201">
+        <v>1516.9341493246848</v>
+      </c>
+      <c r="B201">
+        <v>1541.2808279389656</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A202">
+        <v>1571.4439880235948</v>
+      </c>
+      <c r="B202">
+        <v>1570.9788293079962</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A203">
+        <v>1554.0735352190993</v>
+      </c>
+      <c r="B203">
+        <v>1586.9064367151086</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A204">
+        <v>1596.6371191059827</v>
+      </c>
+      <c r="B204">
+        <v>1560.0250619815934</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A205">
+        <v>1556.9316856205248</v>
+      </c>
+      <c r="B205">
+        <v>1498.0186092646163</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A206">
+        <v>1503.4324950911259</v>
+      </c>
+      <c r="B206">
+        <v>1502.5999754185316</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A207">
+        <v>1564.6914819390622</v>
+      </c>
+      <c r="B207">
+        <v>1572.1114664341274</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A208">
+        <v>1504.4785432090941</v>
+      </c>
+      <c r="B208">
+        <v>1561.9171309894568</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A209">
+        <v>1526.2261652137092</v>
+      </c>
+      <c r="B209">
+        <v>1515.139950214239</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A210">
+        <v>1643.9751960000001</v>
+      </c>
+      <c r="B210">
+        <v>1540.7909554463924</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A211">
+        <v>1543.4747249552402</v>
+      </c>
+      <c r="B211">
+        <v>1588.9244941629393</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A212">
+        <v>1517.4567550200859</v>
+      </c>
+      <c r="B212">
+        <v>1590.4796441549718</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A213">
+        <v>1570.8251476660898</v>
+      </c>
+      <c r="B213">
+        <v>1501.8305743616904</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A214">
+        <v>1504.3655938209872</v>
+      </c>
+      <c r="B214">
+        <v>1497.9972233527078</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A215">
+        <v>1572.1949822668046</v>
+      </c>
+      <c r="B215">
+        <v>1539.6243097187948</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A216">
+        <v>1522.2056429106378</v>
+      </c>
+      <c r="B216">
+        <v>1509.7451080922881</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A217">
+        <v>1521.9889808965229</v>
+      </c>
+      <c r="B217">
+        <v>1508.7476810958581</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A218">
+        <v>1557.4572291244201</v>
+      </c>
+      <c r="B218">
+        <v>1504.1305189463717</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A219">
+        <v>1505.9134524334511</v>
+      </c>
+      <c r="B219">
+        <v>1534.3289338341522</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A220">
+        <v>1537.9704926113254</v>
+      </c>
+      <c r="B220">
+        <v>1530.274060602489</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A221">
+        <v>1548.0802461300486</v>
+      </c>
+      <c r="B221">
+        <v>1526.6631185016508</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A222">
+        <v>1512.815570678735</v>
+      </c>
+      <c r="B222">
+        <v>1536.0618822882475</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A223">
+        <v>1509.0048752582638</v>
+      </c>
+      <c r="B223">
+        <v>1579.7362119121058</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A224">
+        <v>1591.9070804091982</v>
+      </c>
+      <c r="B224">
+        <v>1497.3609638306555</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A225">
+        <v>1567.1687576869062</v>
+      </c>
+      <c r="B225">
+        <v>1504.2924794585485</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A226">
+        <v>1545.0680307717776</v>
+      </c>
+      <c r="B226">
+        <v>1531.5330430012327</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A227">
+        <v>1500.4342116812345</v>
+      </c>
+      <c r="B227">
+        <v>1518.7584537302998</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A228">
+        <v>1582.1464456884078</v>
+      </c>
+      <c r="B228">
+        <v>1521.340788838779</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A229">
+        <v>1515.9592015066589</v>
+      </c>
+      <c r="B229">
+        <v>1586.4740496104448</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A230">
+        <v>1507.9000061971888</v>
+      </c>
+      <c r="B230">
+        <v>1531.370618380108</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A231">
+        <v>1531.7451828272519</v>
+      </c>
+      <c r="B231">
+        <v>1502.0168894776011</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A232">
+        <v>1570.5216472645395</v>
+      </c>
+      <c r="B232">
+        <v>1548.8556000399815</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A233">
+        <v>1554.2157414224794</v>
+      </c>
+      <c r="B233">
+        <v>1539.0990729526302</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A234">
+        <v>1584.0958534542408</v>
+      </c>
+      <c r="B234">
+        <v>1522.2136429595878</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A235">
+        <v>1586.2994084648308</v>
+      </c>
+      <c r="B235">
+        <v>1511.5485393400702</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A236">
+        <v>1525.15700008925</v>
+      </c>
+      <c r="B236">
+        <v>1547.479750654742</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A237">
+        <v>1510.522524066504</v>
+      </c>
+      <c r="B237">
+        <v>1521.1340071001393</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A238">
+        <v>1588.7593388685684</v>
+      </c>
+      <c r="B238">
+        <v>1532.542990706602</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A239">
+        <v>1593.3223006709466</v>
+      </c>
+      <c r="B239">
+        <v>1593.2246959096026</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A240">
+        <v>1588.1978473700437</v>
+      </c>
+      <c r="B240">
+        <v>1591.3727853079322</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A241">
+        <v>1579.5883292253159</v>
+      </c>
+      <c r="B241">
+        <v>1570.6492299245867</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A242">
+        <v>1527.3407550698157</v>
+      </c>
+      <c r="B242">
+        <v>1555.1661723899945</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A243">
+        <v>1526.7821608300112</v>
+      </c>
+      <c r="B243">
+        <v>1533.8894726530843</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A244">
+        <v>1573.1907109786503</v>
+      </c>
+      <c r="B244">
+        <v>1505.3816585594661</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A245">
+        <v>1547.1758480426886</v>
+      </c>
+      <c r="B245">
+        <v>1556.5783469022144</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A246">
+        <v>1597.8113818456168</v>
+      </c>
+      <c r="B246">
+        <v>1512.8852264644775</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A247">
+        <v>1535.138824072749</v>
+      </c>
+      <c r="B247">
+        <v>1580.6128532207249</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A248">
+        <v>1585.1612933632614</v>
+      </c>
+      <c r="B248">
+        <v>1574.2680859747825</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A249">
+        <v>1535.9511509191</v>
+      </c>
+      <c r="B249">
+        <v>1553.3899282498896</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A250">
+        <v>1697.15875263</v>
+      </c>
+      <c r="B250">
+        <v>1558.7471988168516</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A251">
+        <v>1540.9947925989061</v>
+      </c>
+      <c r="B251">
+        <v>1545.9389206090386</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A252">
+        <v>1537.9100763665176</v>
+      </c>
+      <c r="B252">
+        <v>1584.1533817659347</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A253">
+        <v>1512.8097080410535</v>
+      </c>
+      <c r="B253">
+        <v>1574.6395961119495</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A254">
+        <v>1547.7295443428641</v>
+      </c>
+      <c r="B254">
+        <v>1532.2256442852681</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A255">
+        <v>1586.6380879286282</v>
+      </c>
+      <c r="B255">
+        <v>1593.1348696698205</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A256">
+        <v>1586.4013140440879</v>
+      </c>
+      <c r="B256">
+        <v>1543.6658480360084</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A257">
+        <v>1563.8750219656463</v>
+      </c>
+      <c r="B257">
+        <v>1538.6494335713753</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A258">
+        <v>1294.9812682350403</v>
+      </c>
+      <c r="B258">
+        <v>1296.6507924825635</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A259">
+        <v>1295.9776117913641</v>
+      </c>
+      <c r="B259">
+        <v>1211.4053587381472</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A260">
+        <v>1282.4228365354804</v>
+      </c>
+      <c r="B260">
+        <v>1232.6729442986455</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A261">
+        <v>1265.010002480511</v>
+      </c>
+      <c r="B261">
+        <v>1211.3831533861107</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A262">
+        <v>1276.0889089356847</v>
+      </c>
+      <c r="B262">
+        <v>1264.5082870094429</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A263">
+        <v>1277.9333038199725</v>
+      </c>
+      <c r="B263">
+        <v>1209.3484621473231</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A264">
+        <v>1255.1475248411653</v>
+      </c>
+      <c r="B264">
+        <v>1220.3401022891696</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A265">
+        <v>1244.17000202697</v>
+      </c>
+      <c r="B265">
+        <v>1262.4807441853022</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A266">
+        <v>1278.0847403950197</v>
+      </c>
+      <c r="B266">
+        <v>1279.4974557916992</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A267">
+        <v>1236.2927989387817</v>
+      </c>
+      <c r="B267">
+        <v>1235.2501449628151</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A268">
+        <v>1219.5724000520504</v>
+      </c>
+      <c r="B268">
+        <v>1242.2630730343321</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A269">
+        <v>1264.3446004748732</v>
+      </c>
+      <c r="B269">
+        <v>1243.7859382923371</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A270">
+        <v>1278.8906699786389</v>
+      </c>
+      <c r="B270">
+        <v>1275.4673034697335</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A271">
+        <v>1247.9329519346595</v>
+      </c>
+      <c r="B271">
+        <v>1214.6820380617432</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A272">
+        <v>1242.1623919003157</v>
+      </c>
+      <c r="B272">
+        <v>1217.0117096702529</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A273">
+        <v>1204.6514492113561</v>
+      </c>
+      <c r="B273">
+        <v>1236.9195717856071</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A274">
+        <v>1278.5402223393332</v>
+      </c>
+      <c r="B274">
+        <v>1258.2781634724422</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A275">
+        <v>1243.25211932105</v>
+      </c>
+      <c r="B275">
+        <v>1250.9503070711728</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A276">
+        <v>1205.13812004242</v>
+      </c>
+      <c r="B276">
+        <v>1277.6259196156664</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A277">
+        <v>1281.4633793482133</v>
+      </c>
+      <c r="B277">
+        <v>1297.9421276624673</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A278">
+        <v>1268.3986295074262</v>
+      </c>
+      <c r="B278">
+        <v>1251.5784691559415</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A279">
+        <v>1294.9431217474275</v>
+      </c>
+      <c r="B279">
+        <v>1213.7718710373306</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A280">
+        <v>1288.8611331484751</v>
+      </c>
+      <c r="B280">
+        <v>1302.0531885947112</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A281">
+        <v>1266.0757792239071</v>
+      </c>
+      <c r="B281">
+        <v>1299.4944139087308</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A282">
+        <v>1234.6420666903796</v>
+      </c>
+      <c r="B282">
+        <v>1290.8529682190258</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A283">
+        <v>1245.5678685062439</v>
+      </c>
+      <c r="B283">
+        <v>1238.5631949446147</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A284">
+        <v>1200.2365450025272</v>
+      </c>
+      <c r="B284">
+        <v>1222.3431875212352</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A285">
+        <v>1252.6674177558111</v>
+      </c>
+      <c r="B285">
+        <v>1215.7817961148282</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A286">
+        <v>1228.4072935278825</v>
+      </c>
+      <c r="B286">
+        <v>1240.3579252253087</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A287">
+        <v>1235.5377805800151</v>
+      </c>
+      <c r="B287">
+        <v>1271.5664930410592</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A288">
+        <v>1240.6810943421701</v>
+      </c>
+      <c r="B288">
+        <v>1300.7212081925632</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A289">
+        <v>1289.8619405716011</v>
+      </c>
+      <c r="B289">
+        <v>1224.4366998191651</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A290">
+        <v>1215.0987163961222</v>
+      </c>
+      <c r="B290">
+        <v>1208.7518209130014</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A291">
+        <v>1247.9703208394897</v>
+      </c>
+      <c r="B291">
+        <v>1288.1710163834191</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A292">
+        <v>1287.7055751799573</v>
+      </c>
+      <c r="B292">
+        <v>1264.6336234865112</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A293">
+        <v>1229.2661004787108</v>
+      </c>
+      <c r="B293">
+        <v>1222.3953869996521</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A294">
+        <v>1226.3619525740116</v>
+      </c>
+      <c r="B294">
+        <v>1207.8000429643519</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A295">
+        <v>1277.2477526379016</v>
+      </c>
+      <c r="B295">
+        <v>1205.1219524817773</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A296">
+        <v>1234.1622165965755</v>
+      </c>
+      <c r="B296">
+        <v>1208.3969943604866</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A297">
+        <v>1242.5497918357878</v>
+      </c>
+      <c r="B297">
+        <v>1226.1529653176076</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A298">
+        <v>1288.2783403462433</v>
+      </c>
+      <c r="B298">
+        <v>1296.380737693004</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A299">
+        <v>1214.738696331269</v>
+      </c>
+      <c r="B299">
+        <v>1271.0179800874348</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A300">
+        <v>1285.6546185743089</v>
+      </c>
+      <c r="B300">
+        <v>1277.4988230550598</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A301">
+        <v>1282.1567112337677</v>
+      </c>
+      <c r="B301">
+        <v>1299.5065157187025</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A302">
+        <v>1265.8103265595416</v>
+      </c>
+      <c r="B302">
+        <v>1254.1135904471571</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A303">
+        <v>1296.4554210103236</v>
+      </c>
+      <c r="B303">
+        <v>1294.0860403673646</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A304">
+        <v>1229.2046852046915</v>
+      </c>
+      <c r="B304">
+        <v>1205.9562901258953</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A305">
+        <v>1259.5068542140843</v>
+      </c>
+      <c r="B305">
+        <v>1282.3806411960811</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A306">
+        <v>1346.1230724801001</v>
+      </c>
+      <c r="B306">
+        <v>1275.5285475121902</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A307">
+        <v>1259.5492284085681</v>
+      </c>
+      <c r="B307">
+        <v>1258.9825322594061</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A308">
+        <v>1200.5340531266693</v>
+      </c>
+      <c r="B308">
+        <v>1304.3967912051319</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A309">
+        <v>1232.8874200982436</v>
+      </c>
+      <c r="B309">
+        <v>1303.4119719885555</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A310">
+        <v>1271.5595963041728</v>
+      </c>
+      <c r="B310">
+        <v>1260.4333411527307</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A311">
+        <v>1247.188815391884</v>
+      </c>
+      <c r="B311">
+        <v>1234.6179505119499</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A312">
+        <v>1270.2705818259312</v>
+      </c>
+      <c r="B312">
+        <v>1272.6710622343157</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A313">
+        <v>1231.8297905272759</v>
+      </c>
+      <c r="B313">
+        <v>1214.2441374438965</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A314">
+        <v>1296.4505166212632</v>
+      </c>
+      <c r="B314">
+        <v>1215.3988805628737</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A315">
+        <v>1299.0601868736489</v>
+      </c>
+      <c r="B315">
+        <v>1301.6099197585143</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A316">
+        <v>1212.4719620561132</v>
+      </c>
+      <c r="B316">
+        <v>1299.7733890677835</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A317">
+        <v>1228.2640221789036</v>
+      </c>
+      <c r="B317">
+        <v>1286.0318942407239</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A318">
+        <v>1210.5176640788457</v>
+      </c>
+      <c r="B318">
+        <v>1296.9401340249055</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A319">
+        <v>1273.4271060845574</v>
+      </c>
+      <c r="B319">
+        <v>1290.028820471239</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A320">
+        <v>1225.1381001464022</v>
+      </c>
+      <c r="B320">
+        <v>1282.8141883590283</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A321">
+        <v>1235.4896561502726</v>
+      </c>
+      <c r="B321">
+        <v>1274.645143191537</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A322">
+        <v>1213.6338834369255</v>
+      </c>
+      <c r="B322">
+        <v>1282.6129667849871</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A323">
+        <v>1268.4076167167027</v>
+      </c>
+      <c r="B323">
+        <v>1300.0094154092201</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A324">
+        <v>1233.2935016030294</v>
+      </c>
+      <c r="B324">
+        <v>1275.2652937881046</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A325">
+        <v>1275.7833796461111</v>
+      </c>
+      <c r="B325">
+        <v>1237.1254171409948</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A326">
+        <v>1291.321985249187</v>
+      </c>
+      <c r="B326">
+        <v>1278.8498252453683</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A327">
+        <v>1245.9816530547248</v>
+      </c>
+      <c r="B327">
+        <v>1226.9907364085122</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A328">
+        <v>1298.8856039746945</v>
+      </c>
+      <c r="B328">
+        <v>1272.1130662220517</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A329">
+        <v>1283.0691533100223</v>
+      </c>
+      <c r="B329">
+        <v>1225.3318729370362</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A330">
+        <v>1222.7470937160115</v>
+      </c>
+      <c r="B330">
+        <v>1252.5672649070113</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A331">
+        <v>1397.2023139891976</v>
+      </c>
+      <c r="B331">
+        <v>1317.3692681172379</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A332">
+        <v>1345.4118626339168</v>
+      </c>
+      <c r="B332">
+        <v>1397.6549553242949</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A333">
+        <v>1319.7877374809195</v>
+      </c>
+      <c r="B333">
+        <v>1303.8866564251171</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A334">
+        <v>1328.6674570011594</v>
+      </c>
+      <c r="B334">
+        <v>1355.1743531365203</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A335">
+        <v>1309.9583733240243</v>
+      </c>
+      <c r="B335">
+        <v>1334.7486038692211</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A336">
+        <v>1341.4123682154345</v>
+      </c>
+      <c r="B336">
+        <v>1326.4145702027126</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A337">
+        <v>1336.6193572000327</v>
+      </c>
+      <c r="B337">
+        <v>1328.4115189157708</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A338">
+        <v>1332.433828008991</v>
+      </c>
+      <c r="B338">
+        <v>1320.2249514552855</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A339">
+        <v>1307.3055382935058</v>
+      </c>
+      <c r="B339">
+        <v>1316.3264025682699</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A340">
+        <v>1310.2629805804659</v>
+      </c>
+      <c r="B340">
+        <v>1314.3598711598843</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A341">
+        <v>1301.9062773012834</v>
+      </c>
+      <c r="B341">
+        <v>1397.8674503378854</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A342">
+        <v>1325.7076129852978</v>
+      </c>
+      <c r="B342">
+        <v>1348.0534556260175</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A343">
+        <v>1380.5377715069787</v>
+      </c>
+      <c r="B343">
+        <v>1331.0867864567401</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A344">
+        <v>1301.6568596722566</v>
+      </c>
+      <c r="B344">
+        <v>1387.0196064084705</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A345">
+        <v>1311.0759046881826</v>
+      </c>
+      <c r="B345">
+        <v>1304.7190096560726</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A346">
+        <v>1312.0366874367646</v>
+      </c>
+      <c r="B346">
+        <v>1313.5534826442561</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A347">
+        <v>1359.0179328572708</v>
+      </c>
+      <c r="B347">
+        <v>1344.7491737939367</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A348">
+        <v>1361.8043006719065</v>
+      </c>
+      <c r="B348">
+        <v>1322.1184607422927</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A349">
+        <v>1324.3096447099103</v>
+      </c>
+      <c r="B349">
+        <v>1322.5661788677085</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A350">
+        <v>1363.8190037061113</v>
+      </c>
+      <c r="B350">
+        <v>1385.0856243937033</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A351">
+        <v>1336.6373349166884</v>
+      </c>
+      <c r="B351">
+        <v>1330.9536902144246</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A352">
+        <v>1399.1628392701393</v>
+      </c>
+      <c r="B352">
+        <v>1335.2734838725983</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A353">
+        <v>1326.1341439358066</v>
+      </c>
+      <c r="B353">
+        <v>1341.5475678906826</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A354">
+        <v>1348.9933915999202</v>
+      </c>
+      <c r="B354">
+        <v>1358.44495053533</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A355">
+        <v>1334.8774499849555</v>
+      </c>
+      <c r="B355">
+        <v>1365.1153530144165</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A356">
+        <v>1325.9808544692326</v>
+      </c>
+      <c r="B356">
+        <v>1355.3780654402722</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A357">
+        <v>1346.1080661749115</v>
+      </c>
+      <c r="B357">
+        <v>1305.5439039108926</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A358">
+        <v>1367.6378122963563</v>
+      </c>
+      <c r="B358">
+        <v>1401.4311599601269</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A359">
+        <v>1474.1972793047601</v>
+      </c>
+      <c r="B359">
+        <v>1398.8687836144643</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A360">
+        <v>1349.7406524126434</v>
+      </c>
+      <c r="B360">
+        <v>1384.4129901148401</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A361">
+        <v>1384.4169010722062</v>
+      </c>
+      <c r="B361">
+        <v>1389.762338158009</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>